--- a/data_output/prism_passive/all_passive_out_emg_gl_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gl_trial_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,148 +513,148 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.5860524481623739</v>
+        <v>1.5860523909831448</v>
       </c>
       <c r="C2">
-        <v>0.80653522185182092</v>
+        <v>0.80653522335789452</v>
       </c>
       <c r="D2">
-        <v>9.6819374103146281</v>
+        <v>9.6819366194268746</v>
       </c>
       <c r="E2">
-        <v>5.6524415565439154</v>
+        <v>5.6524414776577308</v>
       </c>
       <c r="F2">
-        <v>5.6373215051835208</v>
+        <v>5.6373214791758528</v>
       </c>
       <c r="G2">
-        <v>1.7203671490253605</v>
+        <v>1.7203670801206439</v>
       </c>
       <c r="H2">
-        <v>6.1716106856362973</v>
+        <v>6.1716106146795999</v>
       </c>
       <c r="I2">
-        <v>0.68400114141020141</v>
+        <v>0.68400110553578664</v>
       </c>
       <c r="J2">
-        <v>7.3787188973365101</v>
+        <v>7.3787192125012666</v>
       </c>
       <c r="K2">
-        <v>4.2295978182087257</v>
+        <v>4.229597738439546</v>
       </c>
       <c r="L2">
-        <v>3.8329620609513393</v>
+        <v>3.8329618193416222</v>
       </c>
       <c r="M2">
-        <v>1.969740141316807</v>
+        <v>1.969740128996128</v>
       </c>
       <c r="N2">
-        <v>9.6827587843374668E-2</v>
+        <v>9.682758749770029E-2</v>
       </c>
       <c r="O2">
-        <v>1.6157775286342855</v>
+        <v>1.6157774606279645</v>
       </c>
       <c r="P2">
-        <v>0.47683296450989943</v>
+        <v>0.47683294596741704</v>
       </c>
       <c r="Q2">
-        <v>0.76494588682865561</v>
+        <v>0.76494589139580571</v>
       </c>
       <c r="R2">
-        <v>1.370831959371589</v>
+        <v>1.3708319777246605</v>
       </c>
       <c r="S2">
-        <v>1.4556470172209326</v>
+        <v>1.4556468603407211</v>
       </c>
       <c r="T2">
-        <v>0.47364495987271277</v>
+        <v>0.47364494722661099</v>
       </c>
       <c r="U2">
-        <v>2.7626388183356276</v>
+        <v>2.7626388511861655</v>
       </c>
       <c r="V2">
-        <v>1.9461093699746361</v>
+        <v>1.9461092187712772</v>
       </c>
       <c r="W2">
-        <v>3.1115245425021021</v>
+        <v>3.1115247594500213</v>
       </c>
       <c r="X2">
-        <v>1.6383515258725239</v>
+        <v>1.6383514782318886</v>
       </c>
       <c r="Y2">
-        <v>0.37145126266604567</v>
+        <v>0.37145124545126884</v>
       </c>
       <c r="AA2">
-        <v>3.1076310150816449</v>
+        <v>3.1076303831289267</v>
       </c>
       <c r="AB2">
-        <v>0.97957516234981679</v>
+        <v>0.97957511750632587</v>
       </c>
       <c r="AC2">
-        <v>8.5505324365550557</v>
+        <v>8.5505321878459029</v>
       </c>
       <c r="AD2">
-        <v>1.933845262726253</v>
+        <v>1.9338451615734116</v>
       </c>
       <c r="AE2">
-        <v>6.8809310415685214</v>
+        <v>6.8809306943506217</v>
       </c>
       <c r="AF2">
-        <v>2.0090125638425524</v>
+        <v>2.0090125071192553</v>
       </c>
       <c r="AG2">
-        <v>7.2868769010569041</v>
+        <v>7.2868767775585024</v>
       </c>
       <c r="AH2">
-        <v>0.62653904024331475</v>
+        <v>0.62653902349703672</v>
       </c>
       <c r="AI2">
-        <v>8.0888702242703445</v>
+        <v>8.0888702769021279</v>
       </c>
       <c r="AJ2">
-        <v>5.2912198834000304</v>
+        <v>5.2912193515402572</v>
       </c>
       <c r="AK2">
-        <v>3.4534961356248437</v>
+        <v>3.4534960618918547</v>
       </c>
       <c r="AL2">
-        <v>1.7186999772028422</v>
+        <v>1.7186999677498846</v>
       </c>
       <c r="AM2">
-        <v>0.3025851825957443</v>
+        <v>0.30258517878326446</v>
       </c>
       <c r="AN2">
-        <v>3.4592388701426935</v>
+        <v>3.4592388228240232</v>
       </c>
       <c r="AO2">
-        <v>0.32332203430525774</v>
+        <v>0.32332203156990447</v>
       </c>
       <c r="AP2">
-        <v>0.8328822601466308</v>
+        <v>0.83288220834832249</v>
       </c>
       <c r="AQ2">
-        <v>1.0266964337414841</v>
+        <v>1.0266964026154932</v>
       </c>
       <c r="AR2">
-        <v>1.1012138625449399</v>
+        <v>1.1012138261551583</v>
       </c>
       <c r="AS2">
-        <v>1.2300279449600209</v>
+        <v>1.2300278579551478</v>
       </c>
       <c r="AT2">
-        <v>1.3593909434991809</v>
+        <v>1.3593909462944576</v>
       </c>
       <c r="AU2">
-        <v>1.4251594246082235</v>
+        <v>1.4251594251528998</v>
       </c>
       <c r="AV2">
-        <v>7.725830494246642</v>
+        <v>7.7258297347008567</v>
       </c>
       <c r="AW2">
-        <v>0.34174051397092897</v>
+        <v>0.34174046386539547</v>
       </c>
       <c r="AX2">
-        <v>0.31683804462500509</v>
+        <v>0.3168380545572797</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -667,148 +662,148 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5.9408169897962013</v>
+        <v>5.9408167921118151</v>
       </c>
       <c r="C3">
-        <v>1.4014487971040288</v>
+        <v>1.4014489037587672</v>
       </c>
       <c r="D3">
-        <v>0.92798784648175725</v>
+        <v>0.92798785144148377</v>
       </c>
       <c r="E3">
-        <v>4.3560725133821334</v>
+        <v>4.3560724666148891</v>
       </c>
       <c r="F3">
-        <v>3.3235870320468828</v>
+        <v>3.3235869298203946</v>
       </c>
       <c r="G3">
-        <v>2.4212007339989183</v>
+        <v>2.4212006958968488</v>
       </c>
       <c r="H3">
-        <v>5.2394149891291217</v>
+        <v>5.2394150997042921</v>
       </c>
       <c r="I3">
-        <v>0.63959175924240386</v>
+        <v>0.63959179008058076</v>
       </c>
       <c r="J3">
-        <v>5.9161433108528625</v>
+        <v>5.9161436115368051</v>
       </c>
       <c r="K3">
-        <v>2.4214019347852771</v>
+        <v>2.4214020007667365</v>
       </c>
       <c r="L3">
-        <v>1.2034641097682466</v>
+        <v>1.2034641331878868</v>
       </c>
       <c r="M3">
-        <v>1.4567493725744369</v>
+        <v>1.4568090026677329</v>
       </c>
       <c r="N3">
-        <v>0.63775846757995247</v>
+        <v>0.63775836925333151</v>
       </c>
       <c r="O3">
-        <v>1.899726450634881</v>
+        <v>1.8997263969175724</v>
       </c>
       <c r="P3">
-        <v>0.58121506472612938</v>
+        <v>0.58121510519088726</v>
       </c>
       <c r="Q3">
-        <v>0.66362469555047621</v>
+        <v>0.66362469176408234</v>
       </c>
       <c r="R3">
-        <v>0.79165958614324805</v>
+        <v>0.79165958231456479</v>
       </c>
       <c r="S3">
-        <v>0.27698474640258164</v>
+        <v>0.2769847502375764</v>
       </c>
       <c r="T3">
-        <v>0.28566449883068928</v>
+        <v>0.28566450486351203</v>
       </c>
       <c r="U3">
-        <v>2.5438748206937252</v>
+        <v>2.5438747914519793</v>
       </c>
       <c r="V3">
-        <v>0.91655844640375772</v>
+        <v>0.916558448687535</v>
       </c>
       <c r="W3">
-        <v>0.16897655905911502</v>
+        <v>0.1689765630242859</v>
       </c>
       <c r="X3">
-        <v>0.58436637399007108</v>
+        <v>0.5843663743793639</v>
       </c>
       <c r="Y3">
-        <v>0.73770543459571924</v>
+        <v>0.73770542901818481</v>
       </c>
       <c r="AA3">
-        <v>2.3711654535765492</v>
+        <v>2.3711653065719851</v>
       </c>
       <c r="AB3">
-        <v>11.360123620499071</v>
+        <v>11.360124919223974</v>
       </c>
       <c r="AC3">
-        <v>2.7806788838023597</v>
+        <v>2.7806788531942503</v>
       </c>
       <c r="AD3">
-        <v>2.1359406587736127</v>
+        <v>2.1359407589697614</v>
       </c>
       <c r="AE3">
-        <v>8.5834622833304426</v>
+        <v>8.5834624862975364</v>
       </c>
       <c r="AF3">
-        <v>1.6075434180031241</v>
+        <v>1.6075434439195682</v>
       </c>
       <c r="AG3">
-        <v>3.0582378944925681</v>
+        <v>3.0582384146570263</v>
       </c>
       <c r="AH3">
-        <v>0.60082138767247939</v>
+        <v>0.60082137634164512</v>
       </c>
       <c r="AI3">
-        <v>5.4475511371116436</v>
+        <v>5.4475507963220071</v>
       </c>
       <c r="AJ3">
-        <v>4.5058260634726466</v>
+        <v>4.5058264093536202</v>
       </c>
       <c r="AK3">
-        <v>0.52944159384344869</v>
+        <v>0.52944158792553075</v>
       </c>
       <c r="AL3">
-        <v>1.5589419651245968</v>
+        <v>1.5589419263913675</v>
       </c>
       <c r="AM3">
-        <v>2.052221682835552</v>
+        <v>2.0522215683671039</v>
       </c>
       <c r="AN3">
-        <v>3.2769209122495733</v>
+        <v>3.2769210066465044</v>
       </c>
       <c r="AO3">
-        <v>0.60867182361888683</v>
+        <v>0.60867175941866525</v>
       </c>
       <c r="AP3">
-        <v>0.28074707507329827</v>
+        <v>0.28074707367290619</v>
       </c>
       <c r="AQ3">
-        <v>0.31443521421501591</v>
+        <v>0.31443522137000224</v>
       </c>
       <c r="AR3">
-        <v>0.25516720483258132</v>
+        <v>0.25516719920312492</v>
       </c>
       <c r="AS3">
-        <v>0.85288828065588174</v>
+        <v>0.85288828575050157</v>
       </c>
       <c r="AT3">
-        <v>1.2716948345819361</v>
+        <v>1.2716948962312906</v>
       </c>
       <c r="AU3">
-        <v>1.9952514179485774</v>
+        <v>1.9952516426864548</v>
       </c>
       <c r="AV3">
-        <v>0.8396852596367067</v>
+        <v>0.83968522450925998</v>
       </c>
       <c r="AW3">
-        <v>1.9466040067833479</v>
+        <v>1.9466040303157786</v>
       </c>
       <c r="AX3">
-        <v>1.1229487453252935</v>
+        <v>1.1229487351410572</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_emg_gl_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gl_trial_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,59 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>1.5860523909831448</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.80653522335789452</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>9.6819366194268746</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>5.6524414776577308</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>5.6373214791758528</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1.7203670801206439</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>6.1716106146795999</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.68400110553578664</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>7.3787192125012666</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>4.229597738439546</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>3.8329618193416222</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>1.969740128996128</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>9.682758749770029E-2</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.6157774606279645</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.47683294596741704</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.76494589139580571</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>1.3708319777246605</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>1.4556468603407211</v>
@@ -585,55 +474,55 @@
         <v>0.37145124545126884</v>
       </c>
       <c r="AA2">
-        <v>3.1076303831289267</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.97957511750632587</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>8.5505321878459029</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>1.9338451615734116</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>6.8809306943506217</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>2.0090125071192553</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>7.2868767775585024</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.62653902349703672</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>8.0888702769021279</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>5.2912193515402572</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>3.4534960618918547</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>1.7186999677498846</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.30258517878326446</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>3.4592388228240232</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.32332203156990447</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.83288220834832249</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>1.0266964026154932</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>1.1012138261551583</v>
@@ -656,61 +545,61 @@
       <c r="AX2">
         <v>0.3168380545572797</v>
       </c>
+      <c r="AY2">
+        <v>1.0800518623093212</v>
+      </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>5.9408167921118151</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1.4014489037587672</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.92798785144148377</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>4.3560724666148891</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>3.3235869298203946</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>2.4212006958968488</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>5.2394150997042921</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.63959179008058076</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>5.9161436115368051</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>2.4214020007667365</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1.2034641331878868</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>1.4568090026677329</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.63775836925333151</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.8997263969175724</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.58121510519088726</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.66362469176408234</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.79165958231456479</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0.2769847502375764</v>
@@ -734,55 +623,55 @@
         <v>0.73770542901818481</v>
       </c>
       <c r="AA3">
-        <v>2.3711653065719851</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>11.360124919223974</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>2.7806788531942503</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>2.1359407589697614</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>8.5834624862975364</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.6075434439195682</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>3.0582384146570263</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.60082137634164512</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>5.4475507963220071</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>4.5058264093536202</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.52944158792553075</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>1.5589419263913675</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>2.0522215683671039</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>3.2769210066465044</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.60867175941866525</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.28074707367290619</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.31443522137000224</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>0.25516719920312492</v>
@@ -804,6 +693,9 @@
       </c>
       <c r="AX3">
         <v>1.1229487351410572</v>
+      </c>
+      <c r="AY3">
+        <v>1.2408623897615247</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_emg_gl_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gl_trial_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.5860524481623739</v>
+        <v>1.1770765782808947</v>
       </c>
       <c r="C2">
-        <v>0.80653522185182092</v>
+        <v>1.3708319777246605</v>
       </c>
       <c r="D2">
-        <v>9.5351479158680181</v>
+        <v>3.4592388228240232</v>
       </c>
       <c r="E2">
-        <v>5.6524415565439154</v>
+        <v>1.0266964026154932</v>
       </c>
       <c r="F2">
         <v>5.6373215051835208</v>
@@ -667,16 +662,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5.9408169897962013</v>
+        <v>1.8997263969175724</v>
       </c>
       <c r="C3">
-        <v>1.4014487971040288</v>
+        <v>0.79165958231456479</v>
       </c>
       <c r="D3">
-        <v>0.92798784648175725</v>
+        <v>3.2769210066465044</v>
       </c>
       <c r="E3">
-        <v>4.3560725133821334</v>
+        <v>0.27686809088726183</v>
       </c>
       <c r="F3">
         <v>3.3235870320468828</v>

--- a/data_output/prism_passive/all_passive_out_emg_gl_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gl_trial_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,17 +512,14 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1.5860524481623739</v>
-      </c>
       <c r="C2">
-        <v>0.80653522185182092</v>
+        <v>1.1770765782808947</v>
       </c>
       <c r="D2">
-        <v>9.5351479158680181</v>
+        <v>0.30258517878326446</v>
       </c>
       <c r="E2">
-        <v>5.6524415565439154</v>
+        <v>3.4592388228240232</v>
       </c>
       <c r="F2">
         <v>5.6373215051835208</v>
@@ -667,16 +659,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5.9408169897962013</v>
+        <v>0.63775836925333151</v>
       </c>
       <c r="C3">
-        <v>1.4014487971040288</v>
+        <v>1.8997263969175724</v>
       </c>
       <c r="D3">
-        <v>0.92798784648175725</v>
+        <v>2.0522215683671039</v>
       </c>
       <c r="E3">
-        <v>4.3560725133821334</v>
+        <v>3.2769210066465044</v>
       </c>
       <c r="F3">
         <v>3.3235870320468828</v>

--- a/data_output/prism_passive/all_passive_out_emg_gl_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gl_trial_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -512,146 +512,149 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>1.5860523909831448</v>
+      </c>
       <c r="C2">
+        <v>0.80653522335789452</v>
+      </c>
+      <c r="D2">
+        <v>9.5351465811646605</v>
+      </c>
+      <c r="E2">
+        <v>5.6524414776577308</v>
+      </c>
+      <c r="F2">
+        <v>5.6373214791758528</v>
+      </c>
+      <c r="G2">
+        <v>1.7203670801206439</v>
+      </c>
+      <c r="H2">
+        <v>6.1716106146795999</v>
+      </c>
+      <c r="I2">
+        <v>0.68400110553578664</v>
+      </c>
+      <c r="J2">
+        <v>7.3787192125012666</v>
+      </c>
+      <c r="K2">
+        <v>4.229597738439546</v>
+      </c>
+      <c r="L2">
+        <v>3.8329618193416222</v>
+      </c>
+      <c r="M2">
+        <v>1.969740128996128</v>
+      </c>
+      <c r="O2">
         <v>1.1770765782808947</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>0.47683294596741704</v>
+      </c>
+      <c r="Q2">
+        <v>0.76494589139580571</v>
+      </c>
+      <c r="R2">
+        <v>1.3708319777246605</v>
+      </c>
+      <c r="S2">
+        <v>1.4556468603407211</v>
+      </c>
+      <c r="T2">
+        <v>0.57032983952677152</v>
+      </c>
+      <c r="U2">
+        <v>2.7626388511861655</v>
+      </c>
+      <c r="V2">
+        <v>1.9461092187712772</v>
+      </c>
+      <c r="W2">
+        <v>3.1115247594500213</v>
+      </c>
+      <c r="X2">
+        <v>1.6383514782318886</v>
+      </c>
+      <c r="Y2">
+        <v>0.30104216098904968</v>
+      </c>
+      <c r="AA2">
+        <v>3.1076303831289267</v>
+      </c>
+      <c r="AB2">
+        <v>0.97957511750631843</v>
+      </c>
+      <c r="AC2">
+        <v>8.5505321878459029</v>
+      </c>
+      <c r="AD2">
+        <v>1.9338451615734116</v>
+      </c>
+      <c r="AE2">
+        <v>6.8809306943506217</v>
+      </c>
+      <c r="AF2">
+        <v>2.0090125071192553</v>
+      </c>
+      <c r="AG2">
+        <v>7.2868767775585024</v>
+      </c>
+      <c r="AH2">
+        <v>0.8021286330600168</v>
+      </c>
+      <c r="AI2">
+        <v>8.0888702769021279</v>
+      </c>
+      <c r="AJ2">
+        <v>5.2912193515402572</v>
+      </c>
+      <c r="AK2">
+        <v>3.4534960618918547</v>
+      </c>
+      <c r="AL2">
+        <v>1.7186999677498846</v>
+      </c>
+      <c r="AM2">
         <v>0.30258517878326446</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>3.4592388228240232</v>
       </c>
-      <c r="F2">
-        <v>5.6373215051835208</v>
-      </c>
-      <c r="G2">
-        <v>1.7203671490253605</v>
-      </c>
-      <c r="H2">
-        <v>6.1716106856362973</v>
-      </c>
-      <c r="I2">
-        <v>0.68400114141020141</v>
-      </c>
-      <c r="J2">
-        <v>7.3787188973365101</v>
-      </c>
-      <c r="K2">
-        <v>4.2295978182087257</v>
-      </c>
-      <c r="L2">
-        <v>3.8329620609513393</v>
-      </c>
-      <c r="M2">
-        <v>1.969740141316807</v>
-      </c>
-      <c r="O2">
-        <v>1.1770766498924463</v>
-      </c>
-      <c r="P2">
-        <v>0.47683296450989943</v>
-      </c>
-      <c r="Q2">
-        <v>0.76494588682865561</v>
-      </c>
-      <c r="R2">
-        <v>1.370831959371589</v>
-      </c>
-      <c r="S2">
-        <v>1.4556470172209326</v>
-      </c>
-      <c r="T2">
-        <v>0.57032987196460416</v>
-      </c>
-      <c r="U2">
-        <v>2.7626388183356276</v>
-      </c>
-      <c r="V2">
-        <v>1.9461093699746361</v>
-      </c>
-      <c r="W2">
-        <v>3.1115245425021021</v>
-      </c>
-      <c r="X2">
-        <v>1.6383515258725239</v>
-      </c>
-      <c r="Y2">
-        <v>0.30104216556009444</v>
-      </c>
-      <c r="AA2">
-        <v>3.1076310150816449</v>
-      </c>
-      <c r="AB2">
-        <v>0.979575162349831</v>
-      </c>
-      <c r="AC2">
-        <v>8.5505324365550557</v>
-      </c>
-      <c r="AD2">
-        <v>1.933845262726253</v>
-      </c>
-      <c r="AE2">
-        <v>6.8809310415685214</v>
-      </c>
-      <c r="AF2">
-        <v>2.0090125638425524</v>
-      </c>
-      <c r="AG2">
-        <v>7.2868769010569041</v>
-      </c>
-      <c r="AH2">
-        <v>0.8021286293488723</v>
-      </c>
-      <c r="AI2">
-        <v>8.0888702242703445</v>
-      </c>
-      <c r="AJ2">
-        <v>5.2912198834000304</v>
-      </c>
-      <c r="AK2">
-        <v>3.4534961356248437</v>
-      </c>
-      <c r="AL2">
-        <v>1.7186999772028422</v>
-      </c>
-      <c r="AM2">
-        <v>0.3025851825957443</v>
-      </c>
-      <c r="AN2">
-        <v>3.4592388701426935</v>
-      </c>
       <c r="AO2">
-        <v>0.32332203430525774</v>
+        <v>0.32332203156990447</v>
       </c>
       <c r="AP2">
-        <v>0.77396560536182946</v>
+        <v>0.77396559340733939</v>
       </c>
       <c r="AQ2">
-        <v>1.0266964337414841</v>
+        <v>1.0266964026154932</v>
       </c>
       <c r="AR2">
-        <v>1.1012138625449399</v>
+        <v>1.1012138261551583</v>
       </c>
       <c r="AS2">
-        <v>1.2300279449600209</v>
+        <v>1.2300278579551478</v>
       </c>
       <c r="AT2">
-        <v>1.3593909434991809</v>
+        <v>1.3593909462944576</v>
       </c>
       <c r="AU2">
-        <v>1.4251594246082235</v>
+        <v>1.4251594251528998</v>
       </c>
       <c r="AV2">
-        <v>7.725830494246642</v>
+        <v>7.7258297347008567</v>
       </c>
       <c r="AW2">
-        <v>0.34174051397092897</v>
+        <v>0.34174046386539547</v>
       </c>
       <c r="AX2">
-        <v>0.31683804462500509</v>
+        <v>0.3168380545572797</v>
       </c>
       <c r="AY2">
-        <v>1.0800518946396269</v>
+        <v>1.0800518623093212</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -659,151 +662,151 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>5.9408167921118151</v>
+      </c>
+      <c r="C3">
+        <v>1.4014489037587672</v>
+      </c>
+      <c r="D3">
+        <v>0.92798785144148377</v>
+      </c>
+      <c r="E3">
+        <v>4.3560724666148891</v>
+      </c>
+      <c r="F3">
+        <v>3.3235869298203946</v>
+      </c>
+      <c r="G3">
+        <v>2.4212006958968488</v>
+      </c>
+      <c r="H3">
+        <v>5.2394150997042921</v>
+      </c>
+      <c r="I3">
+        <v>0.89758765038286992</v>
+      </c>
+      <c r="J3">
+        <v>5.9161436115368051</v>
+      </c>
+      <c r="K3">
+        <v>2.4214020007667365</v>
+      </c>
+      <c r="L3">
+        <v>1.2034641331878868</v>
+      </c>
+      <c r="M3">
+        <v>1.4568090026677329</v>
+      </c>
+      <c r="N3">
         <v>0.63775836925333151</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>1.8997263969175724</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>0.58121510519088726</v>
+      </c>
+      <c r="Q3">
+        <v>0.66362469176408234</v>
+      </c>
+      <c r="R3">
+        <v>0.79165958231456479</v>
+      </c>
+      <c r="S3">
+        <v>0.31238378496725716</v>
+      </c>
+      <c r="T3">
+        <v>0.29751446023966988</v>
+      </c>
+      <c r="U3">
+        <v>2.5438747914519793</v>
+      </c>
+      <c r="V3">
+        <v>0.916558448687535</v>
+      </c>
+      <c r="W3">
+        <v>0.14149731019250239</v>
+      </c>
+      <c r="X3">
+        <v>0.5843663743793639</v>
+      </c>
+      <c r="Y3">
+        <v>0.73770542901818481</v>
+      </c>
+      <c r="AA3">
+        <v>2.3711653065719851</v>
+      </c>
+      <c r="AB3">
+        <v>11.360124919223974</v>
+      </c>
+      <c r="AC3">
+        <v>2.8626601935018314</v>
+      </c>
+      <c r="AD3">
+        <v>2.1359407589697614</v>
+      </c>
+      <c r="AE3">
+        <v>8.5834624862975364</v>
+      </c>
+      <c r="AF3">
+        <v>1.6075434439195682</v>
+      </c>
+      <c r="AG3">
+        <v>2.7648851833337975</v>
+      </c>
+      <c r="AH3">
+        <v>0.14428238000544288</v>
+      </c>
+      <c r="AI3">
+        <v>5.4475507963220071</v>
+      </c>
+      <c r="AJ3">
+        <v>4.5058264093536202</v>
+      </c>
+      <c r="AK3">
+        <v>0.52944158792553075</v>
+      </c>
+      <c r="AL3">
+        <v>1.5589419263913675</v>
+      </c>
+      <c r="AM3">
         <v>2.0522215683671039</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>3.2769210066465044</v>
       </c>
-      <c r="F3">
-        <v>3.3235870320468828</v>
-      </c>
-      <c r="G3">
-        <v>2.4212007339989183</v>
-      </c>
-      <c r="H3">
-        <v>5.2394149891291217</v>
-      </c>
-      <c r="I3">
-        <v>0.89758760378031632</v>
-      </c>
-      <c r="J3">
-        <v>5.9161433108528625</v>
-      </c>
-      <c r="K3">
-        <v>2.4214019347852771</v>
-      </c>
-      <c r="L3">
-        <v>1.2034641097682466</v>
-      </c>
-      <c r="M3">
-        <v>1.4567493725744369</v>
-      </c>
-      <c r="N3">
-        <v>0.63775846757995247</v>
-      </c>
-      <c r="O3">
-        <v>1.899726450634881</v>
-      </c>
-      <c r="P3">
-        <v>0.58121506472612938</v>
-      </c>
-      <c r="Q3">
-        <v>0.66362469555047621</v>
-      </c>
-      <c r="R3">
-        <v>0.79165958614324805</v>
-      </c>
-      <c r="S3">
-        <v>0.31238377758157726</v>
-      </c>
-      <c r="T3">
-        <v>0.29751445204642268</v>
-      </c>
-      <c r="U3">
-        <v>2.5438748206937252</v>
-      </c>
-      <c r="V3">
-        <v>0.91655844640375772</v>
-      </c>
-      <c r="W3">
-        <v>0.14149730839888733</v>
-      </c>
-      <c r="X3">
-        <v>0.58436637399007108</v>
-      </c>
-      <c r="Y3">
-        <v>0.73770543459571924</v>
-      </c>
-      <c r="AA3">
-        <v>2.3711654535765492</v>
-      </c>
-      <c r="AB3">
-        <v>11.360123620499071</v>
-      </c>
-      <c r="AC3">
-        <v>2.8626601802945744</v>
-      </c>
-      <c r="AD3">
-        <v>2.1359406587736127</v>
-      </c>
-      <c r="AE3">
-        <v>8.5834622833304426</v>
-      </c>
-      <c r="AF3">
-        <v>1.6075434180031241</v>
-      </c>
-      <c r="AG3">
-        <v>2.764884966095503</v>
-      </c>
-      <c r="AH3">
-        <v>0.14428238189662851</v>
-      </c>
-      <c r="AI3">
-        <v>5.4475511371116436</v>
-      </c>
-      <c r="AJ3">
-        <v>4.5058260634726466</v>
-      </c>
-      <c r="AK3">
-        <v>0.52944159384344869</v>
-      </c>
-      <c r="AL3">
-        <v>1.5589419651245968</v>
-      </c>
-      <c r="AM3">
-        <v>2.052221682835552</v>
-      </c>
-      <c r="AN3">
-        <v>3.2769209122495733</v>
-      </c>
       <c r="AO3">
-        <v>0.60867182361888683</v>
+        <v>0.60867175941866525</v>
       </c>
       <c r="AP3">
-        <v>0.29927466331724306</v>
+        <v>0.29927467286822906</v>
       </c>
       <c r="AQ3">
-        <v>0.27686812106937719</v>
+        <v>0.27686809088726183</v>
       </c>
       <c r="AR3">
-        <v>0.25516720483257516</v>
+        <v>0.25516719920312836</v>
       </c>
       <c r="AS3">
-        <v>0.85288828065588174</v>
+        <v>0.85288828575050157</v>
       </c>
       <c r="AT3">
-        <v>1.2716948345819361</v>
+        <v>1.2716948962312906</v>
       </c>
       <c r="AU3">
-        <v>1.9952514179485774</v>
+        <v>1.9952516426864548</v>
       </c>
       <c r="AV3">
-        <v>0.8396852596367067</v>
+        <v>0.83968522450925998</v>
       </c>
       <c r="AW3">
-        <v>1.9466040067833479</v>
+        <v>1.9466040303157786</v>
       </c>
       <c r="AX3">
-        <v>1.1229487453252935</v>
+        <v>1.1229487351410572</v>
       </c>
       <c r="AY3">
-        <v>1.2408624526816516</v>
+        <v>1.2408623897615247</v>
       </c>
     </row>
   </sheetData>
